--- a/DnD Suite/sample.xlsx
+++ b/DnD Suite/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Naser Salameh\OneDrive - University of Southampton\Coding Workspaces\Java\eclipse-workspace\DnD_Suite\DnD Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9187CEC-C55C-4A2F-8200-DB74607658F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309A246-E11F-4413-A5DC-35BC6CD561DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="334">
   <si>
     <t>Player</t>
   </si>
@@ -1186,12 +1186,6 @@
   </si>
   <si>
     <t>Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beast Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lore College</t>
   </si>
   <si>
     <t>Subclass</t>
@@ -1631,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,16 +1636,16 @@
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1662,52 +1656,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1718,49 +1712,49 @@
         <v>202</v>
       </c>
       <c r="D2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>200</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>12</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
       </c>
       <c r="J2">
         <v>13</v>
       </c>
       <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>16</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>30</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1771,49 +1765,49 @@
         <v>201</v>
       </c>
       <c r="D3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>130</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>12</v>
-      </c>
-      <c r="I3">
-        <v>13</v>
       </c>
       <c r="J3">
         <v>13</v>
       </c>
       <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>16</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>23</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>25</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="P3" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1824,49 +1818,49 @@
         <v>195</v>
       </c>
       <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12</v>
-      </c>
-      <c r="I4">
-        <v>13</v>
       </c>
       <c r="J4">
         <v>13</v>
       </c>
       <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>16</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>18</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1</v>
       </c>
-      <c r="P4" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1877,52 +1871,52 @@
         <v>204</v>
       </c>
       <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>200</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12</v>
-      </c>
-      <c r="I5">
-        <v>13</v>
       </c>
       <c r="J5">
         <v>13</v>
       </c>
       <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>16</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>11</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>30</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1933,45 +1927,45 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>150</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>12</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
       </c>
       <c r="J6">
         <v>13</v>
       </c>
       <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
         <v>15</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>16</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>30</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>32</v>
       </c>
     </row>

--- a/DnD Suite/sample.xlsx
+++ b/DnD Suite/sample.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Naser Salameh\OneDrive - University of Southampton\Coding Workspaces\Java\eclipse-workspace\DnD_Suite\DnD Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7309A246-E11F-4413-A5DC-35BC6CD561DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A5BC5B-F1C7-4FC8-9941-BB74D2901DFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Players" sheetId="1" r:id="rId1"/>
+    <sheet name="Races" sheetId="10" r:id="rId1"/>
     <sheet name="Classes" sheetId="9" r:id="rId2"/>
-    <sheet name="Races" sheetId="10" r:id="rId3"/>
-    <sheet name="Time-Pieces" sheetId="2" r:id="rId4"/>
-    <sheet name="Time-Anomalies" sheetId="3" r:id="rId5"/>
-    <sheet name="Quests" sheetId="4" r:id="rId6"/>
-    <sheet name="Items" sheetId="5" r:id="rId7"/>
-    <sheet name="NPCs" sheetId="6" r:id="rId8"/>
+    <sheet name="Players" sheetId="1" r:id="rId3"/>
+    <sheet name="NPCs" sheetId="6" r:id="rId4"/>
+    <sheet name="Time-Pieces" sheetId="2" r:id="rId5"/>
+    <sheet name="Time-Anomalies" sheetId="3" r:id="rId6"/>
+    <sheet name="Quests" sheetId="4" r:id="rId7"/>
+    <sheet name="Items" sheetId="5" r:id="rId8"/>
     <sheet name="Thedas" sheetId="7" r:id="rId9"/>
     <sheet name="Snitel" sheetId="8" r:id="rId10"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="333">
   <si>
     <t>Player</t>
   </si>
@@ -359,9 +359,6 @@
     <t>Session</t>
   </si>
   <si>
-    <t>Description, Age</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
   </si>
   <si>
     <t>Prologue</t>
-  </si>
-  <si>
-    <t>Disheveled Wizard, 18</t>
   </si>
   <si>
     <r>
@@ -405,9 +399,6 @@
     <t>Azor</t>
   </si>
   <si>
-    <t>Assassin, 34</t>
-  </si>
-  <si>
     <t>Pre-New Era: Orlesian assassin, was hired to kill the party.
 New Era: Assassin for hire, easter egg appearances</t>
   </si>
@@ -416,9 +407,6 @@
   </si>
   <si>
     <t>Duke Lapas</t>
-  </si>
-  <si>
-    <t>Duke, 56</t>
   </si>
   <si>
     <t>Murdered nameless's parents and took ownership of the region.
@@ -428,13 +416,7 @@
 Theodore and Colletta, by threating Colletta's parents</t>
   </si>
   <si>
-    <t>Orlais, Val Pris</t>
-  </si>
-  <si>
     <t>Lord Timber</t>
-  </si>
-  <si>
-    <t>Lord, 45</t>
   </si>
   <si>
     <t>Lord of Lothering, stupid but honorable, fat, pretends to be smart.
@@ -447,25 +429,16 @@
     <t>Marcus</t>
   </si>
   <si>
-    <t>Lord's son, 8</t>
-  </si>
-  <si>
     <t>Kidnapped son of Lord Timber, fat bully</t>
   </si>
   <si>
     <t>Smithy samson</t>
   </si>
   <si>
-    <t>Lothering local blacksmith , 50</t>
-  </si>
-  <si>
     <t>Normal Smith</t>
   </si>
   <si>
     <t>Samson Junior</t>
-  </si>
-  <si>
-    <t>Smithy's son. 18</t>
   </si>
   <si>
     <t>dreams of leaving lothering and learning how to forge heroic weapons</t>
@@ -1189,6 +1162,30 @@
   </si>
   <si>
     <t>Subclass</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Smithy's son</t>
+  </si>
+  <si>
+    <t>Lothering local blacksmith</t>
+  </si>
+  <si>
+    <t>Lord's son</t>
+  </si>
+  <si>
+    <t>Lord</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Disheveled Wizard</t>
+  </si>
+  <si>
+    <t>Thedas</t>
   </si>
 </sst>
 </file>
@@ -1624,10 +1621,737 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6823123-7AB7-435E-B2CB-BAEFFD54B1B2}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE1A93B-D08A-48A9-8BEF-92544091AFA6}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" t="s">
+        <v>288</v>
+      </c>
+      <c r="G10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>295</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" t="s">
+        <v>314</v>
+      </c>
+      <c r="J13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K13" t="s">
+        <v>316</v>
+      </c>
+      <c r="L13" t="s">
+        <v>317</v>
+      </c>
+      <c r="M13" t="s">
+        <v>318</v>
+      </c>
+      <c r="N13" t="s">
+        <v>319</v>
+      </c>
+      <c r="O13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1656,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1665,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1686,10 +2410,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -1709,10 +2433,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1762,10 +2486,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1815,10 +2539,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -1865,13 +2589,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1924,10 +2648,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1975,174 +2699,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="2" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
+      <c r="C1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2150,559 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE1A93B-D08A-48A9-8BEF-92544091AFA6}">
-  <dimension ref="A1:O13"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J4" t="s">
-        <v>251</v>
-      </c>
-      <c r="K4" t="s">
-        <v>252</v>
-      </c>
-      <c r="L4" t="s">
-        <v>254</v>
-      </c>
-      <c r="M4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H6" t="s">
-        <v>267</v>
-      </c>
-      <c r="I6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" t="s">
-        <v>269</v>
-      </c>
-      <c r="K6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>277</v>
-      </c>
-      <c r="I7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H8" t="s">
-        <v>285</v>
-      </c>
-      <c r="I8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E10" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C11" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H11" t="s">
-        <v>306</v>
-      </c>
-      <c r="I11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C12" t="s">
-        <v>309</v>
-      </c>
-      <c r="D12" t="s">
-        <v>310</v>
-      </c>
-      <c r="E12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" t="s">
-        <v>313</v>
-      </c>
-      <c r="H12" t="s">
-        <v>314</v>
-      </c>
-      <c r="I12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" t="s">
-        <v>320</v>
-      </c>
-      <c r="G13" t="s">
-        <v>321</v>
-      </c>
-      <c r="H13" t="s">
-        <v>322</v>
-      </c>
-      <c r="I13" t="s">
-        <v>323</v>
-      </c>
-      <c r="J13" t="s">
-        <v>324</v>
-      </c>
-      <c r="K13" t="s">
-        <v>325</v>
-      </c>
-      <c r="L13" t="s">
-        <v>326</v>
-      </c>
-      <c r="M13" t="s">
-        <v>327</v>
-      </c>
-      <c r="N13" t="s">
-        <v>328</v>
-      </c>
-      <c r="O13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6823123-7AB7-435E-B2CB-BAEFFD54B1B2}">
-  <dimension ref="A1:A30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2776,7 +2979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -2857,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2965,7 +3168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2995,145 +3198,6 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
@@ -3157,206 +3221,206 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/DnD Suite/sample.xlsx
+++ b/DnD Suite/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Naser Salameh\OneDrive - University of Southampton\Coding Workspaces\Java\eclipse-workspace\DnD_Suite\DnD Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A5BC5B-F1C7-4FC8-9941-BB74D2901DFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637BAF72-0A29-469A-80F9-D21B4108A318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Races" sheetId="10" r:id="rId1"/>
@@ -2351,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2703,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3064,7 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/DnD Suite/sample.xlsx
+++ b/DnD Suite/sample.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Naser Salameh\OneDrive - University of Southampton\Coding Workspaces\Java\eclipse-workspace\DnD_Suite\DnD Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637BAF72-0A29-469A-80F9-D21B4108A318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B6BD1-CD29-409B-915A-0928DFCA6391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Races" sheetId="10" r:id="rId1"/>
     <sheet name="Classes" sheetId="9" r:id="rId2"/>
     <sheet name="Players" sheetId="1" r:id="rId3"/>
     <sheet name="NPCs" sheetId="6" r:id="rId4"/>
-    <sheet name="Time-Pieces" sheetId="2" r:id="rId5"/>
-    <sheet name="Time-Anomalies" sheetId="3" r:id="rId6"/>
-    <sheet name="Quests" sheetId="4" r:id="rId7"/>
-    <sheet name="Items" sheetId="5" r:id="rId8"/>
-    <sheet name="Thedas" sheetId="7" r:id="rId9"/>
+    <sheet name="Locations" sheetId="7" r:id="rId5"/>
+    <sheet name="Time-Pieces" sheetId="2" r:id="rId6"/>
+    <sheet name="Time-Anomalies" sheetId="3" r:id="rId7"/>
+    <sheet name="Quests" sheetId="4" r:id="rId8"/>
+    <sheet name="Items" sheetId="5" r:id="rId9"/>
     <sheet name="Snitel" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="337">
   <si>
     <t>Player</t>
   </si>
@@ -1186,6 +1186,18 @@
   </si>
   <si>
     <t>Thedas</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Within</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1307,6 +1319,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2351,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2906,6 +2919,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2979,7 +3276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3060,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3170,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -3203,230 +3500,4 @@
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/DnD Suite/sample.xlsx
+++ b/DnD Suite/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Naser Salameh\OneDrive - University of Southampton\Coding Workspaces\Java\eclipse-workspace\DnD_Suite\DnD Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B6BD1-CD29-409B-915A-0928DFCA6391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDDBC40-BF22-4688-8639-92890E9B9F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Races" sheetId="10" r:id="rId1"/>
@@ -18,18 +18,25 @@
     <sheet name="Players" sheetId="1" r:id="rId3"/>
     <sheet name="NPCs" sheetId="6" r:id="rId4"/>
     <sheet name="Locations" sheetId="7" r:id="rId5"/>
-    <sheet name="Time-Pieces" sheetId="2" r:id="rId6"/>
-    <sheet name="Time-Anomalies" sheetId="3" r:id="rId7"/>
-    <sheet name="Quests" sheetId="4" r:id="rId8"/>
-    <sheet name="Items" sheetId="5" r:id="rId9"/>
+    <sheet name="Items" sheetId="5" r:id="rId6"/>
+    <sheet name="Time-Pieces" sheetId="2" r:id="rId7"/>
+    <sheet name="Time-Anomalies" sheetId="3" r:id="rId8"/>
+    <sheet name="Quests" sheetId="4" r:id="rId9"/>
     <sheet name="Snitel" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="342">
   <si>
     <t>Player</t>
   </si>
@@ -347,9 +354,6 @@
     <t>Heart of a Blade</t>
   </si>
   <si>
-    <t>Item Name</t>
-  </si>
-  <si>
     <t>Owned By</t>
   </si>
   <si>
@@ -1198,6 +1202,24 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>A sword</t>
+  </si>
+  <si>
+    <t>+2 attack</t>
+  </si>
+  <si>
+    <t>Common</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1320,6 +1342,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1653,7 +1676,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -1673,32 +1696,32 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -1708,92 +1731,92 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1818,13 +1841,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>150</v>
-      </c>
-      <c r="C1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1832,18 +1855,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1851,32 +1874,32 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
         <v>158</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
         <v>161</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1884,10 +1907,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -1895,10 +1918,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1906,21 +1929,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -1928,21 +1951,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
         <v>175</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>176</v>
-      </c>
-      <c r="C12" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1950,18 +1973,18 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
         <v>179</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,7 +1992,7 @@
         <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1992,367 +2015,367 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
         <v>222</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>223</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>224</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>225</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>226</v>
-      </c>
-      <c r="G2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
         <v>228</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>230</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>231</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>232</v>
-      </c>
-      <c r="G3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" t="s">
         <v>234</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>235</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>236</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>237</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>238</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>239</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>240</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>241</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>242</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" t="s">
         <v>243</v>
-      </c>
-      <c r="L4" t="s">
-        <v>245</v>
-      </c>
-      <c r="M4" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>247</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>248</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>249</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>250</v>
-      </c>
-      <c r="G5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
         <v>252</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>253</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>254</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>255</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>256</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>257</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>258</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>259</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>260</v>
-      </c>
-      <c r="K6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
         <v>262</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>263</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>264</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>265</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>266</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>267</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>268</v>
-      </c>
-      <c r="I7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" t="s">
         <v>270</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>271</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>272</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>273</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>274</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>275</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>276</v>
-      </c>
-      <c r="I8" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" t="s">
         <v>278</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>279</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>280</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>281</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>282</v>
-      </c>
-      <c r="G9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
         <v>284</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>285</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>286</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>287</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>288</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>289</v>
-      </c>
-      <c r="H10" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" t="s">
         <v>291</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>292</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>293</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>294</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>295</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>296</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>297</v>
-      </c>
-      <c r="I11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" t="s">
         <v>299</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>300</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>301</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>302</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>303</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>304</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>305</v>
-      </c>
-      <c r="I12" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" t="s">
         <v>307</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>308</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>309</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>310</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>311</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>312</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>313</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>314</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>315</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>316</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>317</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>318</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>319</v>
-      </c>
-      <c r="O13" t="s">
-        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2407,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2393,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2402,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2423,10 +2446,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -2446,10 +2469,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2499,10 +2522,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -2552,10 +2575,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2602,13 +2625,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2661,10 +2684,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -2731,22 +2754,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
@@ -2754,163 +2777,163 @@
     </row>
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
         <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
         <v>82</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2922,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2938,39 +2961,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>334</v>
-      </c>
       <c r="E2" s="18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>46</v>
@@ -2978,222 +3001,222 @@
     </row>
     <row r="3" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3203,6 +3226,64 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3276,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3357,7 +3438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3465,39 +3546,4 @@
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-</worksheet>
 </file>
--- a/DnD Suite/sample.xlsx
+++ b/DnD Suite/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Naser Salameh\OneDrive - University of Southampton\Coding Workspaces\Java\eclipse-workspace\DnD_Suite\DnD Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDDBC40-BF22-4688-8639-92890E9B9F9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6BCC5D-E07C-4444-9457-6FE484791687}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Races" sheetId="10" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="NPCs" sheetId="6" r:id="rId4"/>
     <sheet name="Locations" sheetId="7" r:id="rId5"/>
     <sheet name="Items" sheetId="5" r:id="rId6"/>
-    <sheet name="Time-Pieces" sheetId="2" r:id="rId7"/>
-    <sheet name="Time-Anomalies" sheetId="3" r:id="rId8"/>
-    <sheet name="Quests" sheetId="4" r:id="rId9"/>
+    <sheet name="Quests" sheetId="4" r:id="rId7"/>
+    <sheet name="Time-Pieces" sheetId="2" r:id="rId8"/>
+    <sheet name="Time-Anomalies" sheetId="3" r:id="rId9"/>
     <sheet name="Snitel" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="350">
   <si>
     <t>Player</t>
   </si>
@@ -245,110 +245,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>1) 
-2) Orlais, Val-Pris
-3) Anywhere</t>
-  </si>
-  <si>
-    <t>Duke Lapas
-Theodore
-Collette</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) In need of more information on Duke Lapas, you track down his Second-in-Command Marquis Felamont in denerim, Who has started a slavery business of kidnapping Elves from the elvenage and seling them under strict contracts into orlais. you have decided to infiltrate his castle.
-2)After Taking control of Val-Pris, Duke Lapas has set him as the guardian of the Faux-Marquis Theodore.
-He is creul with people, but an efficient noble with the aid of a necklace that allows him to return two minutes and helps him manage conversations, the players are immune with their Time-Compasses. Lapas is trying to force a marriage between
-Theodore and Colletta, however she proves impossible even with countless retries.
-3) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Undecided</t>
-    </r>
-  </si>
-  <si>
-    <t>Blighted Wilds</t>
-  </si>
-  <si>
-    <t>You have returned once more to the
-location of the keep, finding only a time-rip. 
-Reaching through. You see the true Past That Was (Original Story, Focus on party growth), 
-The present that is (What changed, simple, where the Time King is), and Finally; the Future that can be (How The original Story happened, focus on individual growth)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Deep Roads (Orzammar)
 2) Tiashan
 3) </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1: There are news of heavy tremors and earthquakes close to and within Orzammar, After checking the source, you find a massive underground time-rip has brought creatures from the past, Dinosaurs in the deep mines of Orzammar. After Defeating them and entering the rip, you discover the nest of a Tyrannosaurus Rex, once tamed, it can be summoned by Luca.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>To summon the creature, you need to forge a connection (Literally and Metaphorically) This is done with the help of both Dwarves and Elves, With construction and using the Wild Forge.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2: In the Rolling Hills of Tiashan, Fields are being burnt, once the party tracks down the fire elementals causing them, they find A time-rip, from which Ancient Amaterasu has appeared.
-3: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Undecided</t>
-    </r>
-  </si>
-  <si>
     <t>Scratch Them Twice</t>
-  </si>
-  <si>
-    <t>1) Denerim
-2) Kirkwall, Free Marches
-3) Ysgard Peak, Anderfels</t>
-  </si>
-  <si>
-    <t>1: You have learnt the location of the armless cult.
-Your direct former leaders (Lancer, Ped and Voralk) are all in the city of amaranthine, once found, you learn they are seeking an escaped celestial half-breed child (Zora) to use for their reasons. Once you free Zora, Zora reincarnates as her true form, and informs you of your origin, and the last two objectives of the Hand.
-2: Your tasked with finding the ancient arm of andraste, last known location is guarding the ashes of andraste in The frostback mountain, but the hero of fereldan has reported that it had been moved to city of kirkwall in the free marches, and is held in the chantry by the next Two fingers. with the hired help of the DragonKin.
-3: The last item of the Armament Ritual - The Legendary shield, left on the peak of the world in the Anderfels.</t>
   </si>
   <si>
     <t>Heart of a Blade</t>
@@ -1220,6 +1122,119 @@
   </si>
   <si>
     <t>Common</t>
+  </si>
+  <si>
+    <t>Player: All
+You have returned once more to the
+location of the keep, finding only a time-rip. 
+Reaching through. You see the true Past That Was (Original Story, Focus on party growth), 
+The present that is (What changed, simple, where the Time King is), and Finally; the Future that can be (How The original Story happened, focus on individual growth)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Player: Carloz
+1: There are news of heavy tremors and earthquakes close to and within Orzammar, After checking the source, you find a massive underground time-rip has brought creatures from the past, Dinosaurs in the deep mines of Orzammar. After Defeating them and entering the rip, you discover the nest of a Tyrannosaurus Rex, once tamed, it can be summoned by Luca.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">To summon the creature, you need to forge a connection (Literally and Metaphorically) This is done with the help of both Dwarves and Elves, With construction and using the Wild Forge.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2: In the Rolling Hills of Tiashan, Fields are being burnt, once the party tracks down the fire elementals causing them, they find A time-rip, from which Ancient Amaterasu has appeared.
+3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Undecided</t>
+    </r>
+  </si>
+  <si>
+    <t>Player: Stannis
+1: You have learnt the location of the armless cult.
+Your direct former leaders (Lancer, Ped and Voralk) are all in the city of amaranthine, once found, you learn they are seeking an escaped celestial half-breed child (Zora) to use for their reasons. Once you free Zora, Zora reincarnates as her true form, and informs you of your origin, and the last two objectives of the Hand.
+2: Your tasked with finding the ancient arm of andraste, last known location is guarding the ashes of andraste in The frostback mountain, but the hero of fereldan has reported that it had been moved to city of kirkwall in the free marches, and is held in the chantry by the next Two fingers. with the hired help of the DragonKin.
+3: The last item of the Armament Ritual - The Legendary shield, left on the peak of the world in the Anderfels.</t>
+  </si>
+  <si>
+    <t>1) Denerim
+2) Val-Pris
+3) Thedas</t>
+  </si>
+  <si>
+    <t>1) Blighted Wilds</t>
+  </si>
+  <si>
+    <t>1) Denerim
+2) Kirkwall
+3) Ysgard Peak</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Player: Nameless
+1: In need of more information on Duke Lapas, you track down his Second-in-Command Marquis Felamont in denerim, Who has started a slavery business of kidnapping Elves from the elvenage and seling them under strict contracts into orlais. you have decided to infiltrate his castle.
+2: After Taking control of Val-Pris, Duke Lapas has set him as the guardian of the Faux-Marquis Theodore.
+He is creul with people, but an efficient noble with the aid of a necklace that allows him to return two minutes and helps him manage conversations, the players are immune with their Time-Compasses. Lapas is trying to force a marriage between
+Theodore and Colletta, however she proves impossible even with countless retries.
+3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Undecided</t>
+    </r>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Denerim</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>Blighted Wilds</t>
+  </si>
+  <si>
+    <t>Val-Pris</t>
+  </si>
+  <si>
+    <t>Deep Roads</t>
+  </si>
+  <si>
+    <t>Kirkwall</t>
+  </si>
+  <si>
+    <t>Ysgard Peak</t>
   </si>
 </sst>
 </file>
@@ -1318,9 +1333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1343,6 +1355,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1670,13 +1685,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -1696,32 +1711,32 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -1731,92 +1746,92 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1841,13 +1856,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1855,136 +1870,136 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>173</v>
+      <c r="B11" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>177</v>
+      <c r="B13" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1992,7 +2007,7 @@
         <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2015,367 +2030,367 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" t="s">
         <v>233</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K4" t="s">
         <v>234</v>
       </c>
-      <c r="D4" t="s">
+      <c r="L4" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" t="s">
         <v>235</v>
-      </c>
-      <c r="E4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" t="s">
-        <v>239</v>
-      </c>
-      <c r="I4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L4" t="s">
-        <v>244</v>
-      </c>
-      <c r="M4" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" t="s">
         <v>251</v>
       </c>
-      <c r="C6" t="s">
+      <c r="K6" t="s">
         <v>252</v>
-      </c>
-      <c r="D6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C12" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G12" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" t="s">
+        <v>305</v>
+      </c>
+      <c r="J13" t="s">
         <v>306</v>
       </c>
-      <c r="C13" t="s">
+      <c r="K13" t="s">
         <v>307</v>
       </c>
-      <c r="D13" t="s">
+      <c r="L13" t="s">
         <v>308</v>
       </c>
-      <c r="E13" t="s">
+      <c r="M13" t="s">
         <v>309</v>
       </c>
-      <c r="F13" t="s">
+      <c r="N13" t="s">
         <v>310</v>
       </c>
-      <c r="G13" t="s">
+      <c r="O13" t="s">
         <v>311</v>
-      </c>
-      <c r="H13" t="s">
-        <v>312</v>
-      </c>
-      <c r="I13" t="s">
-        <v>313</v>
-      </c>
-      <c r="J13" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" t="s">
-        <v>315</v>
-      </c>
-      <c r="L13" t="s">
-        <v>316</v>
-      </c>
-      <c r="M13" t="s">
-        <v>317</v>
-      </c>
-      <c r="N13" t="s">
-        <v>318</v>
-      </c>
-      <c r="O13" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2407,7 +2422,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2416,7 +2431,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2425,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2446,10 +2461,10 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -2469,10 +2484,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -2522,10 +2537,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -2575,10 +2590,10 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -2625,13 +2640,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -2684,10 +2699,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -2739,9 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2754,22 +2767,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>54</v>
@@ -2777,163 +2790,163 @@
     </row>
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C8">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2943,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2961,262 +2974,382 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +3362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3245,36 +3378,36 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>340</v>
+        <v>331</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3284,6 +3417,113 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3357,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3436,114 +3676,4 @@
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="360" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" location="NPCs!A1" display="Duke Lapas_x000a_Theodore_x000a_Collette" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/DnD Suite/sample.xlsx
+++ b/DnD Suite/sample.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Naser Salameh\OneDrive - University of Southampton\Coding Workspaces\Java\eclipse-workspace\DnD_Suite\DnD Suite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B1913B-057A-4ECD-B5FE-E0CD938AACDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Players" r:id="rId3" sheetId="1"/>
-    <sheet name="Races" r:id="rId4" sheetId="2"/>
-    <sheet name="Classes" r:id="rId5" sheetId="3"/>
-    <sheet name="NPCs" r:id="rId6" sheetId="4"/>
-    <sheet name="Locations" r:id="rId7" sheetId="5"/>
-    <sheet name="Items" r:id="rId8" sheetId="6"/>
-    <sheet name="Quests" r:id="rId9" sheetId="7"/>
+    <sheet name="Players" sheetId="1" r:id="rId1"/>
+    <sheet name="Races" sheetId="2" r:id="rId2"/>
+    <sheet name="Classes" sheetId="3" r:id="rId3"/>
+    <sheet name="NPCs" sheetId="4" r:id="rId4"/>
+    <sheet name="Locations" sheetId="5" r:id="rId5"/>
+    <sheet name="Items" sheetId="6" r:id="rId6"/>
+    <sheet name="Quests" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -255,12 +263,6 @@
   </si>
   <si>
     <t>Subclass14</t>
-  </si>
-  <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>Subclasses</t>
   </si>
   <si>
     <t>Barbarian</t>
@@ -680,9 +682,6 @@
     <t>Various</t>
   </si>
   <si>
-    <t>Fereldan</t>
-  </si>
-  <si>
     <t>England</t>
   </si>
   <si>
@@ -873,37 +872,6 @@
   </si>
   <si>
     <t>Orphan's Lament</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thedas
-Fereldan
-Orlais
-Nevarra
-Tevinter
-Antiva
-Free Marches
-Rivain
-Seheron
-Par Vollen
-Tiashan
-Anderfels
-Denerim
-Blighted Wilds
-Val-Pris
-Deep Roads
-Kirkwall
-Ysgard Peak
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malek Waqit
-Azor
-Duke Lapas
-Lord Timber
-Marcus
-Smithy samson
-Samson Junior
-</t>
   </si>
   <si>
     <t>Player: Nameless
@@ -946,25 +914,57 @@
   <si>
     <t>Heart of a Blade</t>
   </si>
+  <si>
+    <t>Lothering</t>
+  </si>
+  <si>
+    <t>1) Denerim
+2) Val-Pris</t>
+  </si>
+  <si>
+    <t>1) Blighted Wilds</t>
+  </si>
+  <si>
+    <t>1) Deep Roads</t>
+  </si>
+  <si>
+    <t>1) Denerim
+2) Anderfels</t>
+  </si>
+  <si>
+    <t>1) Thedas</t>
+  </si>
+  <si>
+    <t>1) Orphan's Lamen
+2) Scratch Them Twice</t>
+  </si>
+  <si>
+    <t>1) Here Again</t>
+  </si>
+  <si>
+    <t>1) Orphan's Lamen</t>
+  </si>
+  <si>
+    <t>Ferelden</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -972,7 +972,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -987,90 +987,401 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.3046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.41015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.87109375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.6328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="7.359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.34375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1640625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.74609375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.85546875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="10.96875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="12.16796875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="9.0625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.48828125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1086,41 +1397,41 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="O2">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1136,41 +1447,41 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>130</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1186,41 +1497,41 @@
       <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1236,41 +1547,41 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1286,1293 +1597,1417 @@
       <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0</v>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>30</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.80078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:DJ100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.14453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.9140625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.33203125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.984375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="13.984375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="13.984375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.984375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="13.984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
       <c r="C2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="S18" t="s">
-        <v>94</v>
-      </c>
-      <c r="T18" t="s">
-        <v>95</v>
-      </c>
-      <c r="U18" t="s">
-        <v>96</v>
-      </c>
-      <c r="V18" t="s">
-        <v>97</v>
-      </c>
-      <c r="W18" t="s">
-        <v>98</v>
-      </c>
-      <c r="X18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX49" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ49" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA49" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB49" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC49" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD49" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG58" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH58" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI58" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ58" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK58" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL58" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM58" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="BP67" t="s">
-        <v>24</v>
-      </c>
-      <c r="BQ67" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR67" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS67" t="s">
-        <v>142</v>
-      </c>
-      <c r="BT67" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="BW74" t="s">
-        <v>145</v>
-      </c>
-      <c r="BX74" t="s">
-        <v>19</v>
-      </c>
-      <c r="BY74" t="s">
-        <v>146</v>
-      </c>
-      <c r="BZ74" t="s">
-        <v>147</v>
-      </c>
-      <c r="CA74" t="s">
-        <v>148</v>
-      </c>
-      <c r="CB74" t="s">
         <v>149</v>
       </c>
-      <c r="CC74" t="s">
+      <c r="B11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
+      <c r="C11" t="s">
         <v>151</v>
       </c>
-      <c r="CE82" t="s">
+      <c r="D11" t="s">
         <v>152</v>
       </c>
-      <c r="CF82" t="s">
+      <c r="E11" t="s">
         <v>153</v>
       </c>
-      <c r="CG82" t="s">
+      <c r="F11" t="s">
         <v>154</v>
       </c>
-      <c r="CH82" t="s">
+      <c r="G11" t="s">
         <v>155</v>
       </c>
-      <c r="CI82" t="s">
+      <c r="H11" t="s">
         <v>156</v>
       </c>
-      <c r="CJ82" t="s">
+      <c r="I11" t="s">
         <v>157</v>
       </c>
-      <c r="CK82" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>158</v>
       </c>
-      <c r="CL82" t="s">
+      <c r="C12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="CN91" t="s">
+      <c r="D12" t="s">
         <v>160</v>
       </c>
-      <c r="CO91" t="s">
+      <c r="E12" t="s">
         <v>161</v>
       </c>
-      <c r="CP91" t="s">
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>162</v>
       </c>
-      <c r="CQ91" t="s">
+      <c r="H12" t="s">
         <v>163</v>
       </c>
-      <c r="CR91" t="s">
-        <v>34</v>
-      </c>
-      <c r="CS91" t="s">
+      <c r="I12" t="s">
         <v>164</v>
       </c>
-      <c r="CT91" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>165</v>
       </c>
-      <c r="CU91" t="s">
+      <c r="B13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
+      <c r="C13" t="s">
         <v>167</v>
       </c>
-      <c r="CW100" t="s">
+      <c r="D13" t="s">
         <v>168</v>
       </c>
-      <c r="CX100" t="s">
+      <c r="E13" t="s">
         <v>169</v>
       </c>
-      <c r="CY100" t="s">
+      <c r="F13" t="s">
         <v>170</v>
       </c>
-      <c r="CZ100" t="s">
+      <c r="G13" t="s">
         <v>171</v>
       </c>
-      <c r="DA100" t="s">
+      <c r="H13" t="s">
         <v>172</v>
       </c>
-      <c r="DB100" t="s">
+      <c r="I13" t="s">
         <v>173</v>
       </c>
-      <c r="DC100" t="s">
+      <c r="J13" t="s">
         <v>174</v>
       </c>
-      <c r="DD100" t="s">
+      <c r="K13" t="s">
         <v>175</v>
       </c>
-      <c r="DE100" t="s">
+      <c r="L13" t="s">
         <v>176</v>
       </c>
-      <c r="DF100" t="s">
+      <c r="M13" t="s">
         <v>177</v>
       </c>
-      <c r="DG100" t="s">
+      <c r="N13" t="s">
         <v>178</v>
       </c>
-      <c r="DH100" t="s">
+      <c r="O13" t="s">
         <v>179</v>
       </c>
-      <c r="DI100" t="s">
-        <v>180</v>
-      </c>
-      <c r="DJ100" t="s">
-        <v>181</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.52734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.77734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="24.37890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.00390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="135.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="135.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" t="s" s="1">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="n">
-        <v>18.0</v>
+      <c r="C2">
+        <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" t="s">
         <v>188</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>189</v>
-      </c>
-      <c r="F2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="n">
-        <v>34.0</v>
+      <c r="C3">
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="n">
-        <v>56.0</v>
+      <c r="C4">
+        <v>56</v>
       </c>
       <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
         <v>194</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="n">
-        <v>45.0</v>
+      <c r="C5">
+        <v>45</v>
       </c>
       <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>198</v>
-      </c>
-      <c r="E5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>200</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="n">
-        <v>8.0</v>
+      <c r="C6">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>201</v>
-      </c>
-      <c r="E6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="n">
-        <v>50.0</v>
+      <c r="C7">
+        <v>50</v>
       </c>
       <c r="D7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>204</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="n">
-        <v>18.0</v>
+      <c r="C8">
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="G8" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.90234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.23046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="36.21484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.55078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>186</v>
-      </c>
-      <c r="B1" t="s" s="1">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s" s="1">
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>214</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
         <v>215</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>216</v>
       </c>
-      <c r="E2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>217</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>218</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" t="s">
         <v>219</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>221</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>222</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
         <v>223</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
         <v>225</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>226</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
         <v>227</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>229</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>230</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
         <v>233</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>234</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" t="s">
         <v>235</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
         <v>237</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>238</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" t="s">
         <v>239</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
         <v>241</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>242</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
         <v>243</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
         <v>245</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>246</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
         <v>247</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="E11" t="s">
         <v>249</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>250</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
         <v>251</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="E12" t="s">
         <v>253</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>254</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
         <v>255</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D13" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
         <v>257</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>258</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
         <v>259</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
         <v>261</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>262</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>263</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>265</v>
       </c>
-      <c r="C15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B18" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>261</v>
+      </c>
+      <c r="E18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>266</v>
       </c>
-      <c r="C16" t="s">
-        <v>264</v>
-      </c>
-      <c r="D16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D17" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>269</v>
+      <c r="B19" t="s">
+        <v>254</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.1640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.19921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>183</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>270</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="B2" t="s">
         <v>271</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="C2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>273</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>274</v>
       </c>
-      <c r="C2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" t="s">
-        <v>277</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.54296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
         <v>278</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>186</v>
-      </c>
-      <c r="C1" t="s" s="1">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>279</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
         <v>280</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>281</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
         <v>282</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" t="s">
         <v>284</v>
       </c>
-      <c r="B3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>290</v>
-      </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>